--- a/data/trans_camb/P5_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 9,88</t>
+          <t>-13,01; 10,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 11,65</t>
+          <t>-8,73; 13,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 6,99</t>
+          <t>-7,29; 7,78</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-0,21%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 21,66</t>
+          <t>-23,72; 23,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 38,58</t>
+          <t>-20,3; 38,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 16,84</t>
+          <t>-15,41; 19,99</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 9,88</t>
+          <t>-16,49; 9,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 11,29</t>
+          <t>-8,2; 11,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 7,35</t>
+          <t>-8,51; 7,51</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-1,64%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 28,92</t>
+          <t>-34,64; 27,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 38,05</t>
+          <t>-21,3; 37,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 21,31</t>
+          <t>-20,68; 21,53</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 13,81</t>
+          <t>-9,29; 9,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 4,65</t>
+          <t>-10,21; 4,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 6,47</t>
+          <t>-7,17; 5,32</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-6,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-2,26%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 40,49</t>
+          <t>-21,95; 27,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 13,83</t>
+          <t>-24,16; 14,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 18,11</t>
+          <t>-16,62; 15,09</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,21</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 7,14</t>
+          <t>-10,93; 6,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 12,52</t>
+          <t>-2,88; 11,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,91</t>
+          <t>-4,52; 7,04</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-4,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 16,98</t>
+          <t>-21,28; 15,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 37,56</t>
+          <t>-7,92; 33,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 17,65</t>
+          <t>-10,18; 18,3</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 13,09</t>
+          <t>-5,06; 13,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 7,08</t>
+          <t>-10,5; 7,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,11</t>
+          <t>-5,55; 7,34</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>-5,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 38,28</t>
+          <t>-11,54; 38,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 22,63</t>
+          <t>-26,81; 26,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 21,51</t>
+          <t>-14,12; 22,15</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>2,43</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 10,78</t>
+          <t>-7,73; 13,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 12,43</t>
+          <t>-7,7; 11,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 8,59</t>
+          <t>-5,11; 9,27</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 30,89</t>
+          <t>-18,22; 38,75</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 37,35</t>
+          <t>-18,5; 33,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 24,13</t>
+          <t>-12,28; 25,72</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,69</t>
+          <t>-4,36; 4,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 4,37</t>
+          <t>-2,74; 4,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,52</t>
+          <t>-2,32; 3,3</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 11,65</t>
+          <t>-9,7; 10,8</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 12,37</t>
+          <t>-6,96; 12,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 9,14</t>
+          <t>-5,77; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_4-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.246313219406272</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3269553425590765</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.704651978724309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,01; 10,7</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 13,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 7,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.31112469388441</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.02854428501463</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.094817722704251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,95%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.132417114633224</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.23512275373874</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.514820509810698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,72; 23,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,3; 38,74</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,41; 19,99</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.06375906245574593</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.008634060362484304</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0381126754671326</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2653581118580415</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2346762438813735</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1908442363224806</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,49; 9,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 11,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 7,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2009958257692006</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3315802746621577</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1561452415162668</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,56%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.160782202079754</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.307480820866452</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.990252332409175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-34,64; 27,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-21,3; 37,79</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,68; 21,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.4782929305355</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.344755848399288</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.539890830084586</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.36053526969676</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.40880677151029</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.507120039580791</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,29; 9,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; 4,98</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 5,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07543283794955793</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0383744033988471</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0259581626466267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-6,6%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3520253933234379</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2111106089812129</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2094091481786137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-21,95; 27,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; 14,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 15,09</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2566124560553482</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3861185633426946</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2229572874606873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.526846557398259</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.565505398878604</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.536480384608129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 6,11</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 11,67</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 7,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.525601024030843</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-10.36440100050557</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.078320436349908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-4,44%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>10,9%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.53817781974339</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.934895110492323</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.585438203552917</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-21,28; 15,71</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-7,92; 33,62</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 18,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.03885425617363365</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.06633159377888866</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01376200453910691</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2006038089114668</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2445713466304007</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1692005766984132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 13,34</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 7,94</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 7,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2951304562673633</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1437034622876693</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.157339589534815</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>10,38%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-5,28%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.991646032365357</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.371234324852624</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.355070618612414</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,54; 38,63</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-26,81; 26,01</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-14,12; 22,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.97293252992824</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.551398619268626</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.556428965856071</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.298115714184793</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.80415562680656</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7.121076907131228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 13,58</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 11,47</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 9,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.04330713291906785</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.1154788125375791</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.03247660503651027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2185629600239083</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.06026213206922464</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1041643188530457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-18,22; 38,75</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-18,5; 33,79</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 25,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1578163461531363</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3544972381571119</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1839849962081004</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>3.393609007957937</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.294442933658552</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.9881218661283664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 4,36</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 4,43</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 3,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-5.893110284830879</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-10.20854417088991</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-5.383979676537676</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>1,3%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>12.6284025182959</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>8.298695755043214</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.506681482293552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-9,7; 10,8</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 12,57</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 8,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.08819651004139267</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.03752413932503724</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.02706762649270945</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1384542036259098</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2638601222489457</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1393600795489823</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.3634331023087763</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.263826892002096</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2280162827312464</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>1.226497032645885</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.029537997608521</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1.119528820494559</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-9.581545021216165</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-9.44499149817819</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-6.280860315422671</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>12.93479867259608</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>10.09072754061414</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>8.062010728992378</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.03127089752277429</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.02737555043852211</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.02923166366873653</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2190831385274944</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.2238007677869324</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1516794238611067</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3738922822539745</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2879992963004305</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2264686799083588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.4063856801602539</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.5964931277881613</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.1066421448072619</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-5.045878565198951</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.04200778856917</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-2.745396094914246</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.14731935941589</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>4.289737961620424</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3.056820961786512</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.009549607493642365</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.01614159178131397</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.002686891458433504</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1147865709229566</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.07869584830906158</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.06670139008763992</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1001357395973428</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1181731635610253</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.07862877676626021</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
